--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sertad1-Ar.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sertad1-Ar.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.13474866666667</v>
+        <v>19.010634</v>
       </c>
       <c r="H2">
-        <v>30.404246</v>
+        <v>57.031902</v>
       </c>
       <c r="I2">
-        <v>0.09605827562377289</v>
+        <v>0.1669610886139304</v>
       </c>
       <c r="J2">
-        <v>0.09605827562377291</v>
+        <v>0.1669610886139304</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4955973333333333</v>
+        <v>0.2356743333333333</v>
       </c>
       <c r="N2">
-        <v>1.486792</v>
+        <v>0.707023</v>
       </c>
       <c r="O2">
-        <v>0.05374044238728271</v>
+        <v>0.04509540876701491</v>
       </c>
       <c r="P2">
-        <v>0.05374044238728272</v>
+        <v>0.04509540876701491</v>
       </c>
       <c r="Q2">
-        <v>5.022754413203555</v>
+        <v>4.480318494194</v>
       </c>
       <c r="R2">
-        <v>45.204789718832</v>
+        <v>40.322866447746</v>
       </c>
       <c r="S2">
-        <v>0.00516221422698109</v>
+        <v>0.007529178539230988</v>
       </c>
       <c r="T2">
-        <v>0.005162214226981092</v>
+        <v>0.007529178539230989</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.13474866666667</v>
+        <v>19.010634</v>
       </c>
       <c r="H3">
-        <v>30.404246</v>
+        <v>57.031902</v>
       </c>
       <c r="I3">
-        <v>0.09605827562377289</v>
+        <v>0.1669610886139304</v>
       </c>
       <c r="J3">
-        <v>0.09605827562377291</v>
+        <v>0.1669610886139304</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>12.38825</v>
       </c>
       <c r="O3">
-        <v>0.4477761754194636</v>
+        <v>0.790148549139098</v>
       </c>
       <c r="P3">
-        <v>0.4477761754194636</v>
+        <v>0.790148549139098</v>
       </c>
       <c r="Q3">
-        <v>41.85060005661111</v>
+        <v>78.5028288835</v>
       </c>
       <c r="R3">
-        <v>376.6554005095</v>
+        <v>706.5254599515</v>
       </c>
       <c r="S3">
-        <v>0.04301260727620172</v>
+        <v>0.1319240619309815</v>
       </c>
       <c r="T3">
-        <v>0.04301260727620172</v>
+        <v>0.1319240619309815</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.13474866666667</v>
+        <v>19.010634</v>
       </c>
       <c r="H4">
-        <v>30.404246</v>
+        <v>57.031902</v>
       </c>
       <c r="I4">
-        <v>0.09605827562377289</v>
+        <v>0.1669610886139304</v>
       </c>
       <c r="J4">
-        <v>0.09605827562377291</v>
+        <v>0.1669610886139304</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.597041333333333</v>
+        <v>0.861036</v>
       </c>
       <c r="N4">
-        <v>13.791124</v>
+        <v>2.583108</v>
       </c>
       <c r="O4">
-        <v>0.4984833821932537</v>
+        <v>0.1647560420938871</v>
       </c>
       <c r="P4">
-        <v>0.4984833821932537</v>
+        <v>0.1647560420938871</v>
       </c>
       <c r="Q4">
-        <v>46.58985852361155</v>
+        <v>16.368840256824</v>
       </c>
       <c r="R4">
-        <v>419.308726712504</v>
+        <v>147.319562311416</v>
       </c>
       <c r="S4">
-        <v>0.04788345412059009</v>
+        <v>0.02750784814371793</v>
       </c>
       <c r="T4">
-        <v>0.0478834541205901</v>
+        <v>0.02750784814371793</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>26.931155</v>
       </c>
       <c r="I5">
-        <v>0.08508549463310319</v>
+        <v>0.07884104858418527</v>
       </c>
       <c r="J5">
-        <v>0.08508549463310322</v>
+        <v>0.07884104858418528</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.4955973333333333</v>
+        <v>0.2356743333333333</v>
       </c>
       <c r="N5">
-        <v>1.486792</v>
+        <v>0.707023</v>
       </c>
       <c r="O5">
-        <v>0.05374044238728271</v>
+        <v>0.04509540876701491</v>
       </c>
       <c r="P5">
-        <v>0.05374044238728272</v>
+        <v>0.04509540876701491</v>
       </c>
       <c r="Q5">
-        <v>4.449002867195555</v>
+        <v>2.115660666840555</v>
       </c>
       <c r="R5">
-        <v>40.04102580476</v>
+        <v>19.040946001565</v>
       </c>
       <c r="S5">
-        <v>0.004572532122323734</v>
+        <v>0.003555369313523917</v>
       </c>
       <c r="T5">
-        <v>0.004572532122323737</v>
+        <v>0.003555369313523918</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>26.931155</v>
       </c>
       <c r="I6">
-        <v>0.08508549463310319</v>
+        <v>0.07884104858418527</v>
       </c>
       <c r="J6">
-        <v>0.08508549463310322</v>
+        <v>0.07884104858418528</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -815,10 +815,10 @@
         <v>12.38825</v>
       </c>
       <c r="O6">
-        <v>0.4477761754194636</v>
+        <v>0.790148549139098</v>
       </c>
       <c r="P6">
-        <v>0.4477761754194636</v>
+        <v>0.790148549139098</v>
       </c>
       <c r="Q6">
         <v>37.06998676986111</v>
@@ -827,10 +827,10 @@
         <v>333.62988092875</v>
       </c>
       <c r="S6">
-        <v>0.03809925737048424</v>
+        <v>0.06229614015139913</v>
       </c>
       <c r="T6">
-        <v>0.03809925737048426</v>
+        <v>0.06229614015139914</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>26.931155</v>
       </c>
       <c r="I7">
-        <v>0.08508549463310319</v>
+        <v>0.07884104858418527</v>
       </c>
       <c r="J7">
-        <v>0.08508549463310322</v>
+        <v>0.07884104858418528</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.597041333333333</v>
+        <v>0.861036</v>
       </c>
       <c r="N7">
-        <v>13.791124</v>
+        <v>2.583108</v>
       </c>
       <c r="O7">
-        <v>0.4984833821932537</v>
+        <v>0.1647560420938871</v>
       </c>
       <c r="P7">
-        <v>0.4984833821932537</v>
+        <v>0.1647560420938871</v>
       </c>
       <c r="Q7">
-        <v>41.26787756313556</v>
+        <v>7.72956465886</v>
       </c>
       <c r="R7">
-        <v>371.41089806822</v>
+        <v>69.56608192974001</v>
       </c>
       <c r="S7">
-        <v>0.04241370514029521</v>
+        <v>0.01298953911926223</v>
       </c>
       <c r="T7">
-        <v>0.04241370514029523</v>
+        <v>0.01298953911926223</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.21867033333333</v>
+        <v>21.69976666666667</v>
       </c>
       <c r="H8">
-        <v>48.656011</v>
+        <v>65.0993</v>
       </c>
       <c r="I8">
-        <v>0.1537223621789972</v>
+        <v>0.1905784239144757</v>
       </c>
       <c r="J8">
-        <v>0.1537223621789972</v>
+        <v>0.1905784239144757</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.4955973333333333</v>
+        <v>0.2356743333333333</v>
       </c>
       <c r="N8">
-        <v>1.486792</v>
+        <v>0.707023</v>
       </c>
       <c r="O8">
-        <v>0.05374044238728271</v>
+        <v>0.04509540876701491</v>
       </c>
       <c r="P8">
-        <v>0.05374044238728272</v>
+        <v>0.04509540876701491</v>
       </c>
       <c r="Q8">
-        <v>8.037929767412443</v>
+        <v>5.114078042655555</v>
       </c>
       <c r="R8">
-        <v>72.34136790671199</v>
+        <v>46.02670238389999</v>
       </c>
       <c r="S8">
-        <v>0.008261107748317403</v>
+        <v>0.008594211928596732</v>
       </c>
       <c r="T8">
-        <v>0.008261107748317406</v>
+        <v>0.008594211928596733</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.21867033333333</v>
+        <v>21.69976666666667</v>
       </c>
       <c r="H9">
-        <v>48.656011</v>
+        <v>65.0993</v>
       </c>
       <c r="I9">
-        <v>0.1537223621789972</v>
+        <v>0.1905784239144757</v>
       </c>
       <c r="J9">
-        <v>0.1537223621789972</v>
+        <v>0.1905784239144757</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>12.38825</v>
       </c>
       <c r="O9">
-        <v>0.4477761754194636</v>
+        <v>0.790148549139098</v>
       </c>
       <c r="P9">
-        <v>0.4477761754194636</v>
+        <v>0.790148549139098</v>
       </c>
       <c r="Q9">
-        <v>66.97364758563889</v>
+        <v>89.60737813611111</v>
       </c>
       <c r="R9">
-        <v>602.76282827075</v>
+        <v>806.4664032249999</v>
       </c>
       <c r="S9">
-        <v>0.06883321141295695</v>
+        <v>0.150585265153239</v>
       </c>
       <c r="T9">
-        <v>0.06883321141295697</v>
+        <v>0.150585265153239</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.21867033333333</v>
+        <v>21.69976666666667</v>
       </c>
       <c r="H10">
-        <v>48.656011</v>
+        <v>65.0993</v>
       </c>
       <c r="I10">
-        <v>0.1537223621789972</v>
+        <v>0.1905784239144757</v>
       </c>
       <c r="J10">
-        <v>0.1537223621789972</v>
+        <v>0.1905784239144757</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.597041333333333</v>
+        <v>0.861036</v>
       </c>
       <c r="N10">
-        <v>13.791124</v>
+        <v>2.583108</v>
       </c>
       <c r="O10">
-        <v>0.4984833821932537</v>
+        <v>0.1647560420938871</v>
       </c>
       <c r="P10">
-        <v>0.4984833821932537</v>
+        <v>0.1647560420938871</v>
       </c>
       <c r="Q10">
-        <v>74.55789789404044</v>
+        <v>18.6842802916</v>
       </c>
       <c r="R10">
-        <v>671.021081046364</v>
+        <v>168.1585226244</v>
       </c>
       <c r="S10">
-        <v>0.0766280430177228</v>
+        <v>0.03139894683264002</v>
       </c>
       <c r="T10">
-        <v>0.07662804301772282</v>
+        <v>0.03139894683264003</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.58328866666667</v>
+        <v>6.543946666666667</v>
       </c>
       <c r="H11">
-        <v>31.749866</v>
+        <v>19.63184</v>
       </c>
       <c r="I11">
-        <v>0.1003095876558115</v>
+        <v>0.05747227889917651</v>
       </c>
       <c r="J11">
-        <v>0.1003095876558115</v>
+        <v>0.05747227889917651</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.4955973333333333</v>
+        <v>0.2356743333333333</v>
       </c>
       <c r="N11">
-        <v>1.486792</v>
+        <v>0.707023</v>
       </c>
       <c r="O11">
-        <v>0.05374044238728271</v>
+        <v>0.04509540876701491</v>
       </c>
       <c r="P11">
-        <v>0.05374044238728272</v>
+        <v>0.04509540876701491</v>
       </c>
       <c r="Q11">
-        <v>5.245049641096889</v>
+        <v>1.542240268035556</v>
       </c>
       <c r="R11">
-        <v>47.205446769872</v>
+        <v>13.88016241232</v>
       </c>
       <c r="S11">
-        <v>0.005390681616309223</v>
+        <v>0.00259173590973025</v>
       </c>
       <c r="T11">
-        <v>0.005390681616309225</v>
+        <v>0.00259173590973025</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.58328866666667</v>
+        <v>6.543946666666667</v>
       </c>
       <c r="H12">
-        <v>31.749866</v>
+        <v>19.63184</v>
       </c>
       <c r="I12">
-        <v>0.1003095876558115</v>
+        <v>0.05747227889917651</v>
       </c>
       <c r="J12">
-        <v>0.1003095876558115</v>
+        <v>0.05747227889917651</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1187,22 +1187,22 @@
         <v>12.38825</v>
       </c>
       <c r="O12">
-        <v>0.4477761754194636</v>
+        <v>0.790148549139098</v>
       </c>
       <c r="P12">
-        <v>0.4477761754194636</v>
+        <v>0.790148549139098</v>
       </c>
       <c r="Q12">
-        <v>43.70280860827778</v>
+        <v>27.02268243111111</v>
       </c>
       <c r="R12">
-        <v>393.3252774745</v>
+        <v>243.20414188</v>
       </c>
       <c r="S12">
-        <v>0.04491624351842271</v>
+        <v>0.04541163778790192</v>
       </c>
       <c r="T12">
-        <v>0.04491624351842272</v>
+        <v>0.04541163778790192</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.58328866666667</v>
+        <v>6.543946666666667</v>
       </c>
       <c r="H13">
-        <v>31.749866</v>
+        <v>19.63184</v>
       </c>
       <c r="I13">
-        <v>0.1003095876558115</v>
+        <v>0.05747227889917651</v>
       </c>
       <c r="J13">
-        <v>0.1003095876558115</v>
+        <v>0.05747227889917651</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.597041333333333</v>
+        <v>0.861036</v>
       </c>
       <c r="N13">
-        <v>13.791124</v>
+        <v>2.583108</v>
       </c>
       <c r="O13">
-        <v>0.4984833821932537</v>
+        <v>0.1647560420938871</v>
       </c>
       <c r="P13">
-        <v>0.4984833821932537</v>
+        <v>0.1647560420938871</v>
       </c>
       <c r="Q13">
-        <v>48.65181544326489</v>
+        <v>5.63457366208</v>
       </c>
       <c r="R13">
-        <v>437.8663389893841</v>
+        <v>50.71116295872</v>
       </c>
       <c r="S13">
-        <v>0.05000266252107956</v>
+        <v>0.009468905201544345</v>
       </c>
       <c r="T13">
-        <v>0.05000266252107958</v>
+        <v>0.009468905201544347</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>40.62112166666667</v>
+        <v>45.17409633333333</v>
       </c>
       <c r="H14">
-        <v>121.863365</v>
+        <v>135.522289</v>
       </c>
       <c r="I14">
-        <v>0.3850115113399109</v>
+        <v>0.3967419656263906</v>
       </c>
       <c r="J14">
-        <v>0.3850115113399109</v>
+        <v>0.3967419656263906</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.4955973333333333</v>
+        <v>0.2356743333333333</v>
       </c>
       <c r="N14">
-        <v>1.486792</v>
+        <v>0.707023</v>
       </c>
       <c r="O14">
-        <v>0.05374044238728271</v>
+        <v>0.04509540876701491</v>
       </c>
       <c r="P14">
-        <v>0.05374044238728272</v>
+        <v>0.04509540876701491</v>
       </c>
       <c r="Q14">
-        <v>20.13171957500889</v>
+        <v>10.64637503729411</v>
       </c>
       <c r="R14">
-        <v>181.18547617508</v>
+        <v>95.817375335647</v>
       </c>
       <c r="S14">
-        <v>0.02069068894360312</v>
+        <v>0.01789124111495106</v>
       </c>
       <c r="T14">
-        <v>0.02069068894360313</v>
+        <v>0.01789124111495106</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>40.62112166666667</v>
+        <v>45.17409633333333</v>
       </c>
       <c r="H15">
-        <v>121.863365</v>
+        <v>135.522289</v>
       </c>
       <c r="I15">
-        <v>0.3850115113399109</v>
+        <v>0.3967419656263906</v>
       </c>
       <c r="J15">
-        <v>0.3850115113399109</v>
+        <v>0.3967419656263906</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>12.38825</v>
       </c>
       <c r="O15">
-        <v>0.4477761754194636</v>
+        <v>0.790148549139098</v>
       </c>
       <c r="P15">
-        <v>0.4477761754194636</v>
+        <v>0.790148549139098</v>
       </c>
       <c r="Q15">
-        <v>167.7415368290278</v>
+        <v>186.5426663004722</v>
       </c>
       <c r="R15">
-        <v>1509.67383146125</v>
+        <v>1678.88399670425</v>
       </c>
       <c r="S15">
-        <v>0.1723989820402527</v>
+        <v>0.3134850885222864</v>
       </c>
       <c r="T15">
-        <v>0.1723989820402528</v>
+        <v>0.3134850885222865</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>40.62112166666667</v>
+        <v>45.17409633333333</v>
       </c>
       <c r="H16">
-        <v>121.863365</v>
+        <v>135.522289</v>
       </c>
       <c r="I16">
-        <v>0.3850115113399109</v>
+        <v>0.3967419656263906</v>
       </c>
       <c r="J16">
-        <v>0.3850115113399109</v>
+        <v>0.3967419656263906</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.597041333333333</v>
+        <v>0.861036</v>
       </c>
       <c r="N16">
-        <v>13.791124</v>
+        <v>2.583108</v>
       </c>
       <c r="O16">
-        <v>0.4984833821932537</v>
+        <v>0.1647560420938871</v>
       </c>
       <c r="P16">
-        <v>0.4984833821932537</v>
+        <v>0.1647560420938871</v>
       </c>
       <c r="Q16">
-        <v>186.7369753080289</v>
+        <v>38.896523210468</v>
       </c>
       <c r="R16">
-        <v>1680.63277777226</v>
+        <v>350.068708894212</v>
       </c>
       <c r="S16">
-        <v>0.191921840356055</v>
+        <v>0.06536563598915313</v>
       </c>
       <c r="T16">
-        <v>0.1919218403560551</v>
+        <v>0.06536563598915314</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.97137133333333</v>
+        <v>12.45716666666667</v>
       </c>
       <c r="H17">
-        <v>56.914114</v>
+        <v>37.3715</v>
       </c>
       <c r="I17">
-        <v>0.1798127685684043</v>
+        <v>0.1094051943618415</v>
       </c>
       <c r="J17">
-        <v>0.1798127685684043</v>
+        <v>0.1094051943618415</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.4955973333333333</v>
+        <v>0.2356743333333333</v>
       </c>
       <c r="N17">
-        <v>1.486792</v>
+        <v>0.707023</v>
       </c>
       <c r="O17">
-        <v>0.05374044238728271</v>
+        <v>0.04509540876701491</v>
       </c>
       <c r="P17">
-        <v>0.05374044238728272</v>
+        <v>0.04509540876701491</v>
       </c>
       <c r="Q17">
-        <v>9.402161042476443</v>
+        <v>2.935834449388889</v>
       </c>
       <c r="R17">
-        <v>84.619449382288</v>
+        <v>26.4225100445</v>
       </c>
       <c r="S17">
-        <v>0.00966321772974813</v>
+        <v>0.004933671960981958</v>
       </c>
       <c r="T17">
-        <v>0.009663217729748133</v>
+        <v>0.004933671960981959</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.97137133333333</v>
+        <v>12.45716666666667</v>
       </c>
       <c r="H18">
-        <v>56.914114</v>
+        <v>37.3715</v>
       </c>
       <c r="I18">
-        <v>0.1798127685684043</v>
+        <v>0.1094051943618415</v>
       </c>
       <c r="J18">
-        <v>0.1798127685684043</v>
+        <v>0.1094051943618415</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>12.38825</v>
       </c>
       <c r="O18">
-        <v>0.4477761754194636</v>
+        <v>0.790148549139098</v>
       </c>
       <c r="P18">
-        <v>0.4477761754194636</v>
+        <v>0.790148549139098</v>
       </c>
       <c r="Q18">
-        <v>78.34069697338889</v>
+        <v>51.44083165277777</v>
       </c>
       <c r="R18">
-        <v>705.0662727604999</v>
+        <v>462.967484875</v>
       </c>
       <c r="S18">
-        <v>0.08051587380114521</v>
+        <v>0.0864463555932901</v>
       </c>
       <c r="T18">
-        <v>0.08051587380114522</v>
+        <v>0.0864463555932901</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.97137133333333</v>
+        <v>12.45716666666667</v>
       </c>
       <c r="H19">
-        <v>56.914114</v>
+        <v>37.3715</v>
       </c>
       <c r="I19">
-        <v>0.1798127685684043</v>
+        <v>0.1094051943618415</v>
       </c>
       <c r="J19">
-        <v>0.1798127685684043</v>
+        <v>0.1094051943618415</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.597041333333333</v>
+        <v>0.861036</v>
       </c>
       <c r="N19">
-        <v>13.791124</v>
+        <v>2.583108</v>
       </c>
       <c r="O19">
-        <v>0.4984833821932537</v>
+        <v>0.1647560420938871</v>
       </c>
       <c r="P19">
-        <v>0.4984833821932537</v>
+        <v>0.1647560420938871</v>
       </c>
       <c r="Q19">
-        <v>87.21217816934845</v>
+        <v>10.726068958</v>
       </c>
       <c r="R19">
-        <v>784.9096035241359</v>
+        <v>96.53462062200001</v>
       </c>
       <c r="S19">
-        <v>0.08963367703751093</v>
+        <v>0.01802516680756946</v>
       </c>
       <c r="T19">
-        <v>0.08963367703751096</v>
+        <v>0.01802516680756946</v>
       </c>
     </row>
   </sheetData>
